--- a/VQC R work/Data Sheets/PFAS_VEH_Rdata_BW.xlsx
+++ b/VQC R work/Data Sheets/PFAS_VEH_Rdata_BW.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E945BF-910B-4A62-BC36-EE65F91F4B82}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF7B973-42CD-554E-BF03-DC8247DEBF91}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>D-2</t>
   </si>
@@ -41,12 +46,15 @@
   <si>
     <t>D0</t>
   </si>
+  <si>
+    <t>D1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>3920</v>
       </c>
@@ -511,7 +519,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +536,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,7 +553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -560,6 +568,23 @@
       </c>
       <c r="E4" s="1">
         <v>37.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E5">
+        <v>36.799999999999997</v>
       </c>
     </row>
   </sheetData>
